--- a/data1.xlsx
+++ b/data1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="31">
   <si>
     <t>num_legs</t>
   </si>
@@ -40,6 +40,18 @@
     <t>head_in_sand</t>
   </si>
   <si>
+    <t>violin</t>
+  </si>
+  <si>
+    <t>legs_category</t>
+  </si>
+  <si>
+    <t>str</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
     <t>mammal</t>
   </si>
   <si>
@@ -64,9 +76,6 @@
     <t>penguin</t>
   </si>
   <si>
-    <t>eagle</t>
-  </si>
-  <si>
     <t>spider</t>
   </si>
   <si>
@@ -83,6 +92,21 @@
   </si>
   <si>
     <t>flies</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
@@ -440,13 +464,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,8 +495,20 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -483,25 +519,37 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
+      <c r="M2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -512,25 +560,37 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G3">
         <v>5</v>
       </c>
-      <c r="H3">
-        <v>1</v>
+      <c r="H3" t="s">
+        <v>26</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
+      <c r="J3">
+        <v>7</v>
+      </c>
+      <c r="K3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -541,25 +601,37 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G4">
         <v>2</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>9</v>
+      </c>
+      <c r="K4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" t="b">
         <v>1</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -570,158 +642,192 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G5">
-        <v>4</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
+      <c r="J5">
+        <v>8</v>
+      </c>
+      <c r="K5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6">
+        <v>26</v>
+      </c>
+      <c r="K6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G7">
-        <v>3</v>
-      </c>
-      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7">
         <v>1</v>
       </c>
+      <c r="J7">
+        <v>23</v>
+      </c>
+      <c r="K7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G8">
-        <v>4</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="H8" t="s">
+        <v>27</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>14</v>
+      </c>
+      <c r="K8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
         <v>4</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G9">
-        <v>5</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="H9" t="s">
+        <v>26</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>6</v>
-      </c>
-      <c r="C10">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10">
+      <c r="J9">
+        <v>12</v>
+      </c>
+      <c r="K9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M9" t="b">
         <v>1</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
